--- a/data/trans_orig/Q23-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q23-Edad-trans_orig.xlsx
@@ -671,31 +671,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>15.39896157600019</v>
+        <v>15.39641478068496</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>15.41561320939499</v>
+        <v>15.37602693888162</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>15.37330111073548</v>
+        <v>15.3392303927641</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15.55540525577028</v>
+        <v>15.53762572439649</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>14.94482045832274</v>
+        <v>14.95085524926206</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>14.8662234506209</v>
+        <v>14.86758985060939</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>15.52665347448801</v>
+        <v>15.52787596527711</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>15.2779176771332</v>
+        <v>15.28593160194036</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>15.26774422797737</v>
+        <v>15.23237806866948</v>
       </c>
     </row>
     <row r="6">
@@ -706,31 +706,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>15.92173883558686</v>
+        <v>15.92565912382844</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>15.91994896879574</v>
+        <v>15.95050106488405</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16.07577584652099</v>
+        <v>16.08868367812298</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16.12116280357776</v>
+        <v>16.13162931895385</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>15.58025491313415</v>
+        <v>15.56701490847185</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>15.64797312162936</v>
+        <v>15.64603449335356</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>15.93588381340679</v>
+        <v>15.93682958518211</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>15.67682351167764</v>
+        <v>15.67347624671365</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>15.7900064204396</v>
+        <v>15.77800155588251</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>16.26781638180792</v>
+        <v>16.27312932609394</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>16.36029532930808</v>
+        <v>16.36530279903941</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>16.28892945759212</v>
+        <v>16.29685709763935</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>16.52064533052215</v>
+        <v>16.53997498633229</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>16.67658389144166</v>
+        <v>16.68622635841426</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>16.45471034841075</v>
+        <v>16.46886675396244</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>16.42256339372311</v>
+        <v>16.42887157727368</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>16.56476994048896</v>
+        <v>16.58619579762527</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>16.44905421824612</v>
+        <v>16.4592663938975</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>16.66356380307587</v>
+        <v>16.67913378328188</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>16.87902057412873</v>
+        <v>16.90915817747533</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>16.87448275847087</v>
+        <v>16.85723984606875</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>17.11097436206677</v>
+        <v>17.14295665691991</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>17.30472799102047</v>
+        <v>17.32627451776264</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>17.14116333048659</v>
+        <v>17.15418405230879</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>16.77951895360254</v>
+        <v>16.77032003089656</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>16.95614705201609</v>
+        <v>16.98781243663008</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>16.91054147219055</v>
+        <v>16.91778911058011</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>16.38671485710059</v>
+        <v>16.38676277097685</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>16.46935809253214</v>
+        <v>16.46102323764425</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>16.56392200189985</v>
+        <v>16.53133656321588</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>16.82190294876655</v>
+        <v>16.82549378692839</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>16.87667606717292</v>
+        <v>16.88240464773753</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>16.77955509595032</v>
+        <v>16.77175636619874</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>16.64564439709399</v>
+        <v>16.64256391069532</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>16.74659557082942</v>
+        <v>16.74028881555468</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>16.74277539020395</v>
+        <v>16.71385659860342</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>17.21290502018734</v>
+        <v>17.20125804318688</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>17.10428104017687</v>
+        <v>17.09215575040916</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>17.36260489549212</v>
+        <v>17.39829816915506</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>17.59075384016158</v>
+        <v>17.59229309235653</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>17.68427089494725</v>
+        <v>17.63068962993103</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>17.41479074924845</v>
+        <v>17.45572872441776</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>17.19127207787853</v>
+        <v>17.17519910470394</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>17.23794354852544</v>
+        <v>17.22677276590239</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>17.28360041920219</v>
+        <v>17.28408960276831</v>
       </c>
     </row>
     <row r="13">
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>15.97194812453534</v>
+        <v>15.97342025973636</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>16.07540712791861</v>
+        <v>16.02986592461033</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>16.08388514304703</v>
+        <v>16.0987222381586</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>17.53836869815069</v>
+        <v>17.56340086408325</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>17.4173774850148</v>
+        <v>17.44718853306343</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>17.29703471859816</v>
+        <v>17.29734823174346</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>16.66482191135787</v>
+        <v>16.63880185462006</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>16.71130969550647</v>
+        <v>16.72043574929817</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>16.72496163376792</v>
+        <v>16.7398605034741</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>16.57524861212897</v>
+        <v>16.55614044187057</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>16.71071832564639</v>
+        <v>16.7075644928468</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>16.77561418725936</v>
+        <v>16.81721930955994</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>18.70232104021092</v>
+        <v>18.68510789941747</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>18.52580292980467</v>
+        <v>18.52131893164081</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>18.11234200086071</v>
+        <v>18.12226101903215</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>17.2400156882949</v>
+        <v>17.21071275797063</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>17.31388109973138</v>
+        <v>17.34654034589623</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>17.26310965410467</v>
+        <v>17.26170554483349</v>
       </c>
     </row>
     <row r="16">
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>15.91578808777835</v>
+        <v>15.90122730097224</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>16.17883186476943</v>
+        <v>16.09800396219327</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>15.91277518453126</v>
+        <v>15.9296723746519</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>20.04980980188127</v>
+        <v>20.05075036008293</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>18.98678527151445</v>
+        <v>18.94418762173569</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>18.73576572305265</v>
+        <v>18.67072467749257</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>16.90953839810453</v>
+        <v>16.87410554032244</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>17.08570122715606</v>
+        <v>17.13639366932624</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>17.18967619543297</v>
+        <v>17.1114120594184</v>
       </c>
     </row>
     <row r="18">
@@ -1142,31 +1142,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>16.74321189703462</v>
+        <v>16.7448501300211</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>17.19914394974714</v>
+        <v>17.15794500649099</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>16.89531278253092</v>
+        <v>16.88525635996649</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>24.09525602428559</v>
+        <v>24.17196320008478</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>21.55784804903597</v>
+        <v>21.40411198678936</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>20.98473331097188</v>
+        <v>20.89067770898128</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>18.09340973871607</v>
+        <v>18.11536004157383</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>18.12827602149356</v>
+        <v>18.15915037586892</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>18.26979861550861</v>
+        <v>18.23384897829163</v>
       </c>
     </row>
     <row r="19">
@@ -1216,31 +1216,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>16.02878113522923</v>
+        <v>16.03144220208114</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>15.84129399520252</v>
+        <v>15.81383748330738</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>15.93889125767081</v>
+        <v>15.9470837549389</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>21.10192574823026</v>
+        <v>21.25918688640682</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>23.35657180544032</v>
+        <v>23.93902570732403</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>20.9280242143681</v>
+        <v>20.95256904629229</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>16.81058474068028</v>
+        <v>16.78017918805624</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>16.95219433790669</v>
+        <v>16.94023736450148</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>17.26346846870858</v>
+        <v>17.31322434018686</v>
       </c>
     </row>
     <row r="21">
@@ -1251,31 +1251,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>17.49489970720461</v>
+        <v>17.54229873417256</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>16.9409659342551</v>
+        <v>16.91680773308712</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>17.16096559425579</v>
+        <v>17.06219992224787</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>30.20629840445388</v>
+        <v>30.44506519339978</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>34.39551795229474</v>
+        <v>34.9791930559857</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>25.82790080961104</v>
+        <v>25.90119292689723</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>18.73774102975794</v>
+        <v>18.55943612088152</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>19.01412341083748</v>
+        <v>18.93884988942429</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>18.79231343906047</v>
+        <v>18.98143608517402</v>
       </c>
     </row>
     <row r="22">
@@ -1325,31 +1325,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>15.19278124894935</v>
+        <v>15.18505799655497</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>15.71582623168489</v>
+        <v>15.67032841155149</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>15.59658479513134</v>
+        <v>15.56246510714685</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>15.97396628264413</v>
+        <v>15.77547362816331</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>21.52481852433374</v>
+        <v>22.16362036678652</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>18.79925023162773</v>
+        <v>18.82089717207276</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>15.59679363062238</v>
+        <v>15.52767453764517</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>16.296033182506</v>
+        <v>16.26380647633007</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>15.97837684445964</v>
+        <v>15.84728361336376</v>
       </c>
     </row>
     <row r="24">
@@ -1360,31 +1360,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>16.5895080032605</v>
+        <v>16.71157754907458</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>17.01030046592089</v>
+        <v>17.06384792923556</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>17.60206156536099</v>
+        <v>17.73811140363667</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>35.38274802443981</v>
+        <v>35.49924995585042</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>35.93546275293434</v>
+        <v>36.27388763576743</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>23.05103029232845</v>
+        <v>23.07334587734927</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>18.03626122804172</v>
+        <v>18.01216024454597</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>18.18422266580276</v>
+        <v>18.35562164126663</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>18.04265086805583</v>
+        <v>17.84613282425189</v>
       </c>
     </row>
     <row r="25">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>16.19272551372568</v>
+        <v>16.19169417497756</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>16.31580058065951</v>
+        <v>16.30678673415865</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>16.29872976552547</v>
+        <v>16.3264753318745</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>17.2334039734938</v>
+        <v>17.23159006844712</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>17.38684878070887</v>
+        <v>17.40590224652148</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>17.40479161804085</v>
+        <v>17.40188700006528</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>16.60672778746126</v>
+        <v>16.62170243663266</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>16.78737257483996</v>
+        <v>16.79786805086331</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>16.81659519251818</v>
+        <v>16.82846326717741</v>
       </c>
     </row>
     <row r="27">
@@ -1469,31 +1469,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>16.49446987663723</v>
+        <v>16.48825570781888</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>16.61427244682575</v>
+        <v>16.61229024792916</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>16.67495468225422</v>
+        <v>16.67221651736084</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>17.78523697512433</v>
+        <v>17.75321952956343</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>17.94877114028113</v>
+        <v>17.99854466205621</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>17.94141125902019</v>
+        <v>17.96236487090352</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>16.89032562422917</v>
+        <v>16.89572437984266</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>17.08367446751702</v>
+        <v>17.08408028443056</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>17.12056009994124</v>
+        <v>17.12589926137929</v>
       </c>
     </row>
     <row r="28">
